--- a/CodeSystem-kommunenummer-codesystem.xlsx
+++ b/CodeSystem-kommunenummer-codesystem.xlsx
@@ -29,7 +29,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>1.0.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T09:13:21+00:00</t>
+    <t>2025-09-12T12:54:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-kommunenummer-codesystem.xlsx
+++ b/CodeSystem-kommunenummer-codesystem.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T12:54:49+00:00</t>
+    <t>2025-09-12T13:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-kommunenummer-codesystem.xlsx
+++ b/CodeSystem-kommunenummer-codesystem.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:01:34+00:00</t>
+    <t>2025-09-12T13:06:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-kommunenummer-codesystem.xlsx
+++ b/CodeSystem-kommunenummer-codesystem.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:06:36+00:00</t>
+    <t>2025-09-13T17:40:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-kommunenummer-codesystem.xlsx
+++ b/CodeSystem-kommunenummer-codesystem.xlsx
@@ -29,7 +29,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.6</t>
+    <t>1.0.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-13T17:40:53+00:00</t>
+    <t>2025-10-07T11:54:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-kommunenummer-codesystem.xlsx
+++ b/CodeSystem-kommunenummer-codesystem.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T11:54:58+00:00</t>
+    <t>2025-10-12T08:57:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-kommunenummer-codesystem.xlsx
+++ b/CodeSystem-kommunenummer-codesystem.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-12T08:57:38+00:00</t>
+    <t>2025-10-12T09:19:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-kommunenummer-codesystem.xlsx
+++ b/CodeSystem-kommunenummer-codesystem.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-12T09:19:49+00:00</t>
+    <t>2025-10-17T18:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-kommunenummer-codesystem.xlsx
+++ b/CodeSystem-kommunenummer-codesystem.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T18:23:46+00:00</t>
+    <t>2025-10-17T18:45:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-kommunenummer-codesystem.xlsx
+++ b/CodeSystem-kommunenummer-codesystem.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T18:45:29+00:00</t>
+    <t>2025-10-17T18:58:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-kommunenummer-codesystem.xlsx
+++ b/CodeSystem-kommunenummer-codesystem.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T18:58:39+00:00</t>
+    <t>2025-10-18T06:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-kommunenummer-codesystem.xlsx
+++ b/CodeSystem-kommunenummer-codesystem.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-18T06:27:30+00:00</t>
+    <t>2025-10-18T06:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-kommunenummer-codesystem.xlsx
+++ b/CodeSystem-kommunenummer-codesystem.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-18T06:37:01+00:00</t>
+    <t>2025-10-18T06:49:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-kommunenummer-codesystem.xlsx
+++ b/CodeSystem-kommunenummer-codesystem.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-18T06:49:50+00:00</t>
+    <t>2025-11-06T09:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-kommunenummer-codesystem.xlsx
+++ b/CodeSystem-kommunenummer-codesystem.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T09:39:43+00:00</t>
+    <t>2025-11-06T09:59:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-kommunenummer-codesystem.xlsx
+++ b/CodeSystem-kommunenummer-codesystem.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T09:59:39+00:00</t>
+    <t>2025-11-24T09:13:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-kommunenummer-codesystem.xlsx
+++ b/CodeSystem-kommunenummer-codesystem.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:13:45+00:00</t>
+    <t>2025-11-25T12:27:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-kommunenummer-codesystem.xlsx
+++ b/CodeSystem-kommunenummer-codesystem.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T12:27:52+00:00</t>
+    <t>2026-02-05T09:35:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
